--- a/biology/Zoologie/Heliophanus_kavar/Heliophanus_kavar.xlsx
+++ b/biology/Zoologie/Heliophanus_kavar/Heliophanus_kavar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliophanus kavar est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliophanus kavar est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Iran[1]. Elle se rencontre dans les provinces du Fars et du Khouzistan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Iran. Elle se rencontre dans les provinces du Fars et du Khouzistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,30 mm de long sur 1,58 mm et l'abdomen 2,60 mm de long sur 1,75 mm et la carapace de la femelle paratype mesure 2,55 mm de long sur 1,78 mm et l'abdomen 3,00 mm de long sur 2,05 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,30 mm de long sur 1,58 mm et l'abdomen 2,60 mm de long sur 1,75 mm et la carapace de la femelle paratype mesure 2,55 mm de long sur 1,78 mm et l'abdomen 3,00 mm de long sur 2,05 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Logunov en 2023.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Kavar.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Logunov, 2023 : « On the jumping spiders (Araneae: Salticidae) from Iran collected by Antoine Senglet (1927–2015). » Arachnology, vol. 19, no 4, p. 732-768.</t>
         </is>
